--- a/src/test/resources/create-excel.xlsx
+++ b/src/test/resources/create-excel.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joker/IdeaProjects/excel2mysql/src/test/resources/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="49">
   <si>
     <t>TABLE_SCHEMA</t>
   </si>
@@ -144,8 +157,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>用户</t>
     </r>
@@ -153,7 +166,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
@@ -167,8 +180,8 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>角色</t>
     </r>
@@ -176,23 +189,32 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
-        <charset val="0"/>
+        <family val="2"/>
       </rPr>
       <t>ID</t>
     </r>
+  </si>
+  <si>
+    <t>sys_cofig</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>状态</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -201,168 +223,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,194 +261,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -594,251 +294,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -846,7 +304,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -857,57 +315,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1169,24 +580,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="9" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="20" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1242,7 +653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" ht="20" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -1269,7 +680,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="20" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1296,7 +707,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" ht="20" customHeight="1" spans="1:9">
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1323,7 +734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="20" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1350,7 +761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" ht="20" customHeight="1" spans="1:9">
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="20" customHeight="1" spans="1:9">
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
@@ -1404,7 +815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" ht="20" customHeight="1" spans="1:9">
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -1431,7 +842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" ht="20" customHeight="1" spans="1:9">
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1458,7 +869,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" ht="20" customHeight="1" spans="1:9">
+    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1487,7 +898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" customFormat="1" ht="20" customHeight="1" spans="1:9">
+    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1512,7 +923,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="20" customHeight="1" spans="1:9">
+    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1539,7 +950,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" customFormat="1" ht="20" customHeight="1" spans="1:9">
+    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -1566,7 +977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="1" ht="20" customHeight="1" spans="1:9">
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1593,8 +1004,112 @@
         <v>21</v>
       </c>
     </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/test/resources/create-excel.xlsx
+++ b/src/test/resources/create-excel.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joker/IdeaProjects/excel2mysql/src/test/resources/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="13280"/>
+    <workbookView windowWidth="28800" windowHeight="11040"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>TABLE_SCHEMA</t>
   </si>
@@ -92,6 +79,9 @@
     <t>N</t>
   </si>
   <si>
+    <t>CURRENT_TIMESTAMP</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -152,47 +142,13 @@
     <t>user_id</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>用户</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
+    <t>用户ID</t>
   </si>
   <si>
     <t>role_id</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>角色</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ID</t>
-    </r>
+    <t>角色ID</t>
   </si>
   <si>
     <t>sys_cofig</t>
@@ -208,13 +164,58 @@
   </si>
   <si>
     <t>状态</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>company_feat</t>
+  </si>
+  <si>
+    <t>company_beta</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>编码</t>
+  </si>
+  <si>
+    <t>varchar(32)</t>
+  </si>
+  <si>
+    <t>PK&amp;UK</t>
+  </si>
+  <si>
+    <t>company_new</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>product_new</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>order_new</t>
+  </si>
+  <si>
+    <t>order_new_feat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -223,32 +224,163 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +393,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -294,17 +612,262 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -314,11 +877,61 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -580,536 +1193,1435 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="9" width="36" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="15" customHeight="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="20" customHeight="1" spans="1:9">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" ht="20" customHeight="1" spans="1:9">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
+      <c r="F3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="20" customHeight="1" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="H4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" ht="20" customHeight="1" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="20" customHeight="1" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="20" customHeight="1" spans="1:9">
+      <c r="A7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="20" customHeight="1" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="20" customHeight="1" spans="1:9">
+      <c r="A9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="F9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:9">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" ht="20" customHeight="1" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:9">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" ht="20" customHeight="1" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:9">
+      <c r="A14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:9">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="E15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="I15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:9">
+      <c r="A16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" ht="20" customHeight="1" spans="1:9">
+      <c r="A17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" ht="20" customHeight="1" spans="1:9">
+      <c r="A18" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" ht="20" customHeight="1" spans="1:9">
+      <c r="A19" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" ht="20" customHeight="1" spans="1:9">
+      <c r="A20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2" t="s">
+      <c r="E20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="20" customHeight="1" spans="1:9">
+      <c r="A21" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" ht="20" customHeight="1" spans="1:9">
+      <c r="A22" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="H22" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" ht="20" customHeight="1" spans="1:9">
+      <c r="A23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="F23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" ht="20" customHeight="1" spans="1:9">
+      <c r="A24" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" ht="20" customHeight="1" spans="1:9">
+      <c r="A25" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" ht="20" customHeight="1" spans="1:9">
+      <c r="A26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A27" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" ht="20" customHeight="1" spans="1:9">
+      <c r="A28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="H28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" ht="20" customHeight="1" spans="1:9">
+      <c r="A29" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="H29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" ht="20" customHeight="1" spans="1:9">
+      <c r="A30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A31" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" ht="20" customHeight="1" spans="1:9">
+      <c r="A32" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" ht="20" customHeight="1" spans="1:9">
+      <c r="A33" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" ht="20" customHeight="1" spans="1:9">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" ht="20" customHeight="1" spans="1:9">
+      <c r="A35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" ht="20" customHeight="1" spans="1:9">
+      <c r="A36" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" ht="20" customHeight="1" spans="1:9">
+      <c r="A37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D37" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F37" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
+      <c r="G37" s="4"/>
+      <c r="H37" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I37" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="2" t="s">
+    <row r="38" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" ht="20" customHeight="1" spans="1:9">
+      <c r="A39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D39" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
+      <c r="F39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="H39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" ht="20" customHeight="1" spans="1:9">
+      <c r="A40" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="H40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" ht="20" customHeight="1" spans="1:9">
+      <c r="A41" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" ht="20" customHeight="1" spans="1:9">
+      <c r="A43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" ht="20" customHeight="1" spans="1:9">
+      <c r="A44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="D44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
+      <c r="F44" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" ht="20" customHeight="1" spans="1:9">
+      <c r="A45" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" ht="20" customHeight="1" spans="1:9">
+      <c r="A47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" ht="20" customHeight="1" spans="1:9">
+      <c r="A48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="E48" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="H48" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" ht="20" customHeight="1" spans="1:9">
+      <c r="A49" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="E50" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2" t="s">
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" ht="20" customHeight="1" spans="1:9">
+      <c r="A51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="2" t="s">
+      <c r="H51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" ht="20" customHeight="1" spans="1:9">
+      <c r="A52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>21</v>
+      <c r="H52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/test/resources/create-excel.xlsx
+++ b/src/test/resources/create-excel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64">
   <si>
     <t>TABLE_SCHEMA</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>order_new_feat</t>
+  </si>
+  <si>
+    <t>order_new_feat_not_change</t>
   </si>
 </sst>
 </file>
@@ -210,10 +213,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -252,18 +255,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,10 +291,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -304,16 +307,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,15 +346,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -350,21 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -373,12 +368,20 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -395,187 +398,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,6 +643,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -655,6 +673,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -666,32 +695,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,145 +718,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1199,10 +1202,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24:G25"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A56" sqref="$A53:$XFD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2620,6 +2623,110 @@
         <v>22</v>
       </c>
     </row>
+    <row r="53" ht="20" customHeight="1" spans="1:9">
+      <c r="A53" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="20" customHeight="1" spans="1:9">
+      <c r="A54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+    </row>
+    <row r="55" ht="20" customHeight="1" spans="1:9">
+      <c r="A55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" ht="20" customHeight="1" spans="1:9">
+      <c r="A56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
